--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>11.7584</v>
+        <v>11.5375</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.128799999999989</v>
+        <v>5.888899999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.578</v>
+        <v>12.0961</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.082700000000003</v>
+        <v>9.109000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.099100000000004</v>
+        <v>9.498700000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.14750000000001</v>
+        <v>13.40300000000001</v>
       </c>
     </row>
     <row r="17">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.729899999999994</v>
+        <v>5.787799999999993</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.480300000000001</v>
+        <v>5.273900000000005</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.891199999999994</v>
+        <v>5.789599999999991</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
